--- a/tools.xlsx
+++ b/tools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Nilai minimal</t>
   </si>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +476,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <f>B4-1.5*B5</f>
@@ -491,14 +491,14 @@
         <f>F7</f>
         <v>1.5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F8">
         <f>B4-0.5*B5</f>
@@ -513,14 +513,14 @@
         <f>F8</f>
         <v>2.5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F9">
         <f>B4+0.5*B5</f>
@@ -535,14 +535,14 @@
         <f>F9</f>
         <v>3.5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="F10">
         <f>B4+1.5*B5</f>
@@ -557,10 +557,62 @@
         <f>F10</f>
         <v>4.5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F13">
+        <f>B4-B5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B15" si="0">F13</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f>B4+B5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Nilai minimal</t>
   </si>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A12" sqref="A12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,56 +565,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <f>B4-B5</f>
-        <v>2</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B15" si="0">F13</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <f>B4+B5</f>
-        <v>4</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="B3" s="2">
         <f>B2-B1</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -456,7 +456,7 @@
       </c>
       <c r="B4" s="2">
         <f>(B2+B1)/2</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B5" s="2">
         <f>B3/6</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -480,7 +480,7 @@
       </c>
       <c r="F7">
         <f>B4-1.5*B5</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -489,7 +489,7 @@
       </c>
       <c r="B8">
         <f>F7</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -502,7 +502,7 @@
       </c>
       <c r="F8">
         <f>B4-0.5*B5</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -511,7 +511,7 @@
       </c>
       <c r="B9">
         <f>F8</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -524,7 +524,7 @@
       </c>
       <c r="F9">
         <f>B4+0.5*B5</f>
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -533,7 +533,7 @@
       </c>
       <c r="B10">
         <f>F9</f>
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -546,7 +546,7 @@
       </c>
       <c r="F10">
         <f>B4+1.5*B5</f>
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
       </c>
       <c r="B11">
         <f>F10</f>
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>

--- a/tools.xlsx
+++ b/tools.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>Nilai minimal</t>
   </si>
@@ -78,7 +78,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +88,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,11 +122,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,11 +440,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -433,146 +460,196 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f>B2-B1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <f>(B2+B1)/2</f>
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <f>B3/6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <f>F8</f>
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <f>F9</f>
+        <v>3.5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5">
+        <f>B4+1.5*B5</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <f>F10</f>
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5">
+        <f>B4+0.5*B5</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <f>F11</f>
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5">
+        <f>B4-0.5*B5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5">
+        <f>B4-1.5*B5</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
+        <f>F14</f>
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3">
+        <f>F15</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <f>B2-B1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
+        <f>B4+B5</f>
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <f>(B2+B1)/2</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <f>B3/6</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
-        <f>B4-1.5*B5</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f>F7</f>
-        <v>0.75</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <f>B4-0.5*B5</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f>F8</f>
-        <v>1.25</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <f>B4+0.5*B5</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f>F9</f>
-        <v>1.75</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <f>B4+1.5*B5</f>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f>F10</f>
-        <v>2.25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
+      <c r="F15" s="3">
+        <f>B4-B5</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
